--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="70">
   <si>
     <t>STT</t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>Thiết bị lỗi module GSM(reset module)</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi dây nguồn</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thể</t>
   </si>
 </sst>
 </file>
@@ -613,6 +625,15 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -641,15 +662,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -958,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -991,43 +1003,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1072,58 +1084,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1148,23 +1160,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1202,7 +1214,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1233,7 +1245,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1262,7 +1274,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1291,7 +1303,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1320,7 +1332,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1349,7 +1361,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1378,7 +1390,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1409,7 +1421,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1438,7 +1450,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1467,7 +1479,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1496,7 +1508,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2727,11 +2739,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2745,6 +2752,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2788,41 +2800,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -2867,58 +2879,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -2943,23 +2955,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2985,7 +2997,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3016,7 +3028,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3045,7 +3057,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3074,7 +3086,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3103,7 +3115,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3132,7 +3144,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3161,7 +3173,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3192,7 +3204,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3221,7 +3233,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3250,7 +3262,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3279,7 +3291,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4510,6 +4522,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4521,13 +4540,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4538,8 +4550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4571,41 +4583,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4650,58 +4662,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -4726,49 +4738,71 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="42">
+        <v>44257</v>
+      </c>
+      <c r="C6" s="42">
+        <v>44257</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="44">
+        <v>862549040724240</v>
+      </c>
       <c r="F6" s="58"/>
-      <c r="G6" s="43"/>
+      <c r="G6" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="H6" s="43"/>
       <c r="I6" s="60"/>
-      <c r="J6" s="45"/>
+      <c r="J6" s="45" t="s">
+        <v>66</v>
+      </c>
       <c r="K6" s="48"/>
       <c r="L6" s="45"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="O6" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4799,7 +4833,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4828,7 +4862,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4857,7 +4891,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4886,7 +4920,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4915,7 +4949,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4944,7 +4978,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -4975,7 +5009,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5004,7 +5038,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5033,7 +5067,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5062,7 +5096,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5213,7 +5247,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -5522,7 +5556,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="16"/>
     </row>
@@ -5714,7 +5748,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -6293,13 +6327,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6311,6 +6338,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6354,41 +6388,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6433,58 +6467,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="61" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -6509,23 +6543,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="70"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6551,7 +6585,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6582,7 +6616,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="72"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6611,7 +6645,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6640,7 +6674,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="72"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6669,7 +6703,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="72"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6698,7 +6732,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="72"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6727,7 +6761,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6758,7 +6792,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="72"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6787,7 +6821,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="72"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6816,7 +6850,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="72"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6845,7 +6879,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="73"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8076,6 +8110,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8087,13 +8128,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="73">
   <si>
     <t>STT</t>
   </si>
@@ -248,6 +248,15 @@
   <si>
     <t>Thể</t>
   </si>
+  <si>
+    <t>125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
 </sst>
 </file>
 
@@ -443,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -623,6 +632,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -970,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1003,43 +1015,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1084,58 +1096,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1160,23 +1172,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1214,7 +1226,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1226,18 +1238,32 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="42">
+        <v>44263</v>
+      </c>
       <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
+      <c r="D7" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="44">
+        <v>868183034607908</v>
+      </c>
       <c r="F7" s="58"/>
-      <c r="G7" s="43"/>
+      <c r="G7" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="61"/>
+      <c r="K7" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="M7" s="45" t="s">
+        <v>72</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="45"/>
       <c r="P7" s="45"/>
@@ -1245,7 +1271,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1255,12 +1281,20 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="42"/>
+      <c r="B8" s="42">
+        <v>44263</v>
+      </c>
       <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
+      <c r="D8" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="44">
+        <v>868183034810569</v>
+      </c>
       <c r="F8" s="58"/>
-      <c r="G8" s="43"/>
+      <c r="G8" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="43"/>
       <c r="I8" s="60"/>
       <c r="J8" s="45"/>
@@ -1274,7 +1308,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1284,12 +1318,18 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="42">
+        <v>44263</v>
+      </c>
       <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
+      <c r="D9" s="43" t="s">
+        <v>44</v>
+      </c>
       <c r="E9" s="44"/>
       <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
+      <c r="G9" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="60"/>
       <c r="J9" s="45"/>
@@ -1303,7 +1343,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1313,12 +1353,16 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10"/>
       <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
+      <c r="D10" s="43" t="s">
+        <v>44</v>
+      </c>
       <c r="E10" s="44"/>
       <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
+      <c r="G10" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="60"/>
       <c r="J10" s="45"/>
@@ -1332,7 +1376,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1344,10 +1388,14 @@
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
+      <c r="D11" s="43" t="s">
+        <v>44</v>
+      </c>
       <c r="E11" s="44"/>
       <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="G11" s="43" t="s">
+        <v>64</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="45"/>
       <c r="J11" s="45"/>
@@ -1361,7 +1409,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1390,7 +1438,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1421,7 +1469,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1450,7 +1498,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1479,7 +1527,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1508,7 +1556,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2800,41 +2848,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -2879,58 +2927,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -2955,23 +3003,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2997,7 +3045,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3028,7 +3076,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3057,7 +3105,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3086,7 +3134,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3115,7 +3163,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3144,7 +3192,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3173,7 +3221,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3204,7 +3252,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3233,7 +3281,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3262,7 +3310,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3291,7 +3339,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4550,8 +4598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showZeros="0" topLeftCell="D3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4583,41 +4631,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4662,58 +4710,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -4738,23 +4786,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4802,7 +4850,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4833,7 +4881,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4862,7 +4910,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4891,7 +4939,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4920,7 +4968,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4949,7 +4997,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4978,7 +5026,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5009,7 +5057,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5038,7 +5086,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5067,7 +5115,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5096,7 +5144,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6388,41 +6436,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6467,58 +6515,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="74" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -6543,23 +6591,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="74"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6585,7 +6633,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6616,7 +6664,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6645,7 +6693,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6674,7 +6722,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6703,7 +6751,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6732,7 +6780,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6761,7 +6809,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6792,7 +6840,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6821,7 +6869,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6850,7 +6898,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6879,7 +6927,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="2175" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="117">
   <si>
     <t>STT</t>
   </si>
@@ -228,15 +228,9 @@
     <t>Lắp đặt</t>
   </si>
   <si>
-    <t>sim</t>
-  </si>
-  <si>
     <t>Còn BH</t>
   </si>
   <si>
-    <t>Thiết bị lỗi module GSM(reset module)</t>
-  </si>
-  <si>
     <t>Thiết bị lỗi dây nguồn</t>
   </si>
   <si>
@@ -256,6 +250,144 @@
   </si>
   <si>
     <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>device.vnetgps.com,15757</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180710</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Thiết bị hỏng connector</t>
+  </si>
+  <si>
+    <t>TG102V</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Thiết bị nổ ACC, hỏng MCU</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>Nạp lại FW cho thiết bị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180320 </t>
+  </si>
+  <si>
+    <t>VI.2.00.---12.190731</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>VI.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>Thay MCU</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim cho thiết bị</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim+FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>NCFW,LK</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t>125.212.203.114,16969</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.170906</t>
+  </si>
+  <si>
+    <t>Thay connector cho thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GSM</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
+  </si>
+  <si>
+    <t>GSM,NCFW,LK</t>
+  </si>
+  <si>
+    <t>ID mới : 864811037128563</t>
+  </si>
+  <si>
+    <t>Thiết bị oxi hóa</t>
+  </si>
+  <si>
+    <t>Không khắc phục được</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn hỏng 3V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thay MCU, nạp lại FW cho thiết bị </t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>Thiết bị hỏng MCU</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>19/032021</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14242</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi ID</t>
+  </si>
+  <si>
+    <t>Set lại ID, nâng cấp khay sim cho thiết bị</t>
+  </si>
+  <si>
+    <t>W.2.00.---20.200622</t>
   </si>
 </sst>
 </file>
@@ -452,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -636,6 +768,36 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -982,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showZeros="0" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -996,7 +1158,7 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="68" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="29" customWidth="1"/>
@@ -1015,46 +1177,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="I2" s="62"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="25"/>
@@ -1079,7 +1241,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -1096,58 +1258,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1169,26 +1331,26 @@
       <c r="H5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1196,37 +1358,51 @@
         <v>1</v>
       </c>
       <c r="B6" s="42">
-        <v>44228</v>
-      </c>
-      <c r="C6" s="42"/>
+        <v>44263</v>
+      </c>
+      <c r="C6" s="42">
+        <v>44271</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="44">
-        <v>868183037834327</v>
-      </c>
-      <c r="F6" s="43" t="s">
+        <v>868183034607908</v>
+      </c>
+      <c r="F6" s="58"/>
+      <c r="G6" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="43" t="s">
-        <v>64</v>
-      </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="48"/>
+      <c r="I6" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="M6" s="45" t="s">
+        <v>108</v>
+      </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="O6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>109</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1241,37 +1417,49 @@
       <c r="B7" s="42">
         <v>44263</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="42">
+        <v>44271</v>
+      </c>
       <c r="D7" s="43" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="44">
-        <v>868183034607908</v>
+        <v>868183034810569</v>
       </c>
       <c r="F7" s="58"/>
       <c r="G7" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="43"/>
       <c r="I7" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="45"/>
+        <v>68</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="M7" s="45" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="O7" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1284,31 +1472,49 @@
       <c r="B8" s="42">
         <v>44263</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="42">
+        <v>44271</v>
+      </c>
       <c r="D8" s="43" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="44">
-        <v>868183034810569</v>
-      </c>
-      <c r="F8" s="58"/>
+        <v>867717030422548</v>
+      </c>
+      <c r="F8" s="43"/>
       <c r="G8" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="60"/>
+        <v>63</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="60" t="s">
+        <v>71</v>
+      </c>
       <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="K8" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>65</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
+      <c r="O8" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1321,29 +1527,47 @@
       <c r="B9" s="42">
         <v>44263</v>
       </c>
-      <c r="C9" s="42"/>
+      <c r="C9" s="42">
+        <v>44271</v>
+      </c>
       <c r="D9" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="44">
+        <v>868183034730601</v>
+      </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="60"/>
+      <c r="I9" s="60" t="s">
+        <v>68</v>
+      </c>
       <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
+      <c r="K9" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
+      <c r="M9" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="47"/>
+      <c r="O9" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1353,67 +1577,107 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10"/>
-      <c r="C10" s="42"/>
+      <c r="B10" s="42">
+        <v>44263</v>
+      </c>
+      <c r="C10" s="42">
+        <v>44271</v>
+      </c>
       <c r="D10" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="44">
+        <v>867717030435003</v>
+      </c>
       <c r="F10" s="43"/>
       <c r="G10" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="J10" s="45"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="43"/>
+      <c r="M10" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="47"/>
+      <c r="O10" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="W10" s="49"/>
     </row>
-    <row r="11" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="71" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43" t="s">
+      <c r="B11" s="10">
+        <v>44263</v>
+      </c>
+      <c r="C11" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
+      <c r="E11" s="12">
+        <v>868183034757224</v>
+      </c>
+      <c r="F11" s="70"/>
+      <c r="G11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="70"/>
+      <c r="I11" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="71" t="s">
+        <v>105</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="43"/>
+      <c r="O11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="63"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="49"/>
+      <c r="W11" s="69"/>
     </row>
     <row r="12" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1426,7 +1690,7 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="65"/>
       <c r="J12" s="45"/>
       <c r="K12" s="1"/>
       <c r="L12" s="45"/>
@@ -1438,7 +1702,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1457,7 +1721,7 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="45"/>
+      <c r="I13" s="60"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="45"/>
@@ -1469,7 +1733,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1486,7 +1750,7 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="45"/>
+      <c r="I14" s="60"/>
       <c r="J14" s="45"/>
       <c r="K14" s="1"/>
       <c r="L14" s="45"/>
@@ -1498,7 +1762,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1515,7 +1779,7 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="65"/>
       <c r="J15" s="45"/>
       <c r="K15" s="1"/>
       <c r="L15" s="45"/>
@@ -1527,7 +1791,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1544,7 +1808,7 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="65"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="45"/>
@@ -1556,7 +1820,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1573,7 +1837,7 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="45"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="45"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1600,7 +1864,7 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="65"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1627,7 +1891,7 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="65"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1658,7 +1922,7 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="65"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1675,7 +1939,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -1690,7 +1954,7 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="65"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1707,7 +1971,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -1722,7 +1986,7 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="65"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="1"/>
@@ -1739,7 +2003,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -1754,7 +2018,7 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="65"/>
       <c r="J23" s="1"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -1781,7 +2045,7 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="65"/>
       <c r="J24" s="1"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -1808,7 +2072,7 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="65"/>
       <c r="J25" s="1"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -1839,7 +2103,7 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="65"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -1871,7 +2135,7 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="65"/>
       <c r="J27" s="1"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -1903,7 +2167,7 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="65"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="11"/>
@@ -1935,7 +2199,7 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="65"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="11"/>
@@ -1952,7 +2216,7 @@
       </c>
       <c r="V29" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="16"/>
     </row>
@@ -1967,7 +2231,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="65"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1999,7 +2263,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="65"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2016,7 +2280,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="16"/>
     </row>
@@ -2031,7 +2295,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="65"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2063,7 +2327,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="65"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2095,7 +2359,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="65"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2127,7 +2391,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="65"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2144,7 +2408,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -2159,7 +2423,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="65"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2176,7 +2440,7 @@
       </c>
       <c r="V36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="16"/>
     </row>
@@ -2191,7 +2455,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="65"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2208,7 +2472,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -2223,7 +2487,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="65"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2250,7 +2514,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="65"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2277,7 +2541,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="65"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2309,7 +2573,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="65"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2326,7 +2590,7 @@
       </c>
       <c r="V41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="16"/>
     </row>
@@ -2341,7 +2605,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="65"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2368,7 +2632,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="65"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2395,7 +2659,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="65"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2431,7 +2695,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="65"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2470,7 +2734,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="65"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2509,7 +2773,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="65"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2548,7 +2812,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="65"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2560,7 +2824,7 @@
       <c r="R48" s="11"/>
       <c r="S48" s="4"/>
       <c r="T48" s="40">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <f>COUNTIF(J8:J20,"*GSM*")</f>
         <v>0</v>
       </c>
       <c r="U48" s="11" t="s">
@@ -2590,7 +2854,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="65"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2618,7 +2882,7 @@
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
       <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
+      <c r="I50" s="66"/>
       <c r="J50" s="37"/>
       <c r="K50" s="37"/>
       <c r="L50" s="37"/>
@@ -2646,7 +2910,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="65"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2674,7 +2938,7 @@
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
+      <c r="I52" s="67"/>
       <c r="J52" s="38"/>
       <c r="K52" s="38"/>
       <c r="L52" s="39"/>
@@ -2702,7 +2966,7 @@
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
       <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
+      <c r="I53" s="67"/>
       <c r="J53" s="38"/>
       <c r="K53" s="38"/>
       <c r="L53" s="39"/>
@@ -2730,7 +2994,7 @@
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
+      <c r="I54" s="67"/>
       <c r="J54" s="38"/>
       <c r="K54" s="38"/>
       <c r="L54" s="39"/>
@@ -2758,7 +3022,7 @@
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
+      <c r="I55" s="67"/>
       <c r="J55" s="38"/>
       <c r="K55" s="38"/>
       <c r="L55" s="39"/>
@@ -2815,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2829,7 +3093,7 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="68" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="29" customWidth="1"/>
@@ -2848,44 +3112,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="I2" s="62"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="25"/>
@@ -2910,7 +3174,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -2927,58 +3191,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -3000,52 +3264,78 @@
       <c r="H5" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C6" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="44">
+        <v>866050031761347</v>
+      </c>
       <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="G6" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="48"/>
+      <c r="I6" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>78</v>
+      </c>
       <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="M6" s="45" t="s">
+        <v>91</v>
+      </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="O6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3057,26 +3347,54 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
+      <c r="B7" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C7" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="44">
+        <v>864811031271690</v>
+      </c>
       <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="G7" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
+      <c r="I7" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>79</v>
+      </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="L7" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>90</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="4"/>
+      <c r="O7" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="T7" s="49"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3086,26 +3404,52 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
+      <c r="B8" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C8" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="44">
+        <v>868926033921286</v>
+      </c>
       <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
+      <c r="G8" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="H8" s="43"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
+      <c r="I8" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>80</v>
+      </c>
       <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="M8" s="45" t="s">
+        <v>82</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
+      <c r="O8" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>36</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3115,26 +3459,54 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
+      <c r="B9" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C9" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="44">
+        <v>868926033929206</v>
+      </c>
       <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
+      <c r="G9" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
+      <c r="I9" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
+      <c r="O9" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3144,26 +3516,54 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C10" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="44">
+        <v>864811036991805</v>
+      </c>
       <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
+      <c r="G10" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
+      <c r="I10" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="43"/>
+      <c r="O10" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3173,26 +3573,54 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
+      <c r="B11" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C11" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="44">
+        <v>868926033918597</v>
+      </c>
       <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="G11" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
+      <c r="I11" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="43"/>
+      <c r="O11" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R11" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3202,26 +3630,54 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C12" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="44">
+        <v>866192037814454</v>
+      </c>
       <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="G12" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
+      <c r="I12" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="43"/>
+      <c r="O12" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R12" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3233,26 +3689,54 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
+      <c r="B13" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C13" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="44">
+        <v>868345035588318</v>
+      </c>
       <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="G13" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="1"/>
+      <c r="I13" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
+      <c r="O13" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R13" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3262,26 +3746,56 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
+      <c r="B14" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C14" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="44">
+        <v>864811037173700</v>
+      </c>
       <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="G14" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>101</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="43"/>
+      <c r="O14" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R14" s="43" t="s">
+        <v>102</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3291,26 +3805,54 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
+      <c r="B15" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C15" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="44">
+        <v>866192037828694</v>
+      </c>
       <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
+      <c r="G15" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
+      <c r="I15" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="43"/>
+      <c r="O15" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3320,26 +3862,54 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
+      <c r="B16" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C16" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="44">
+        <v>868926033973055</v>
+      </c>
       <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="G16" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
+      <c r="I16" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="43"/>
+      <c r="O16" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3349,23 +3919,51 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
+      <c r="B17" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C17" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="44">
+        <v>864811037115263</v>
+      </c>
       <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+      <c r="G17" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="45"/>
+      <c r="I17" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="43"/>
+      <c r="O17" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="16"/>
       <c r="U17" s="49"/>
@@ -3376,23 +3974,51 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
+      <c r="B18" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C18" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="44">
+        <v>866192037838313</v>
+      </c>
       <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="G18" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="11"/>
+      <c r="I18" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
+      <c r="O18" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
@@ -3403,24 +4029,54 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
+      <c r="B19" s="42">
+        <v>44271</v>
+      </c>
+      <c r="C19" s="42">
+        <v>44272</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="44">
+        <v>868926033935500</v>
+      </c>
       <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
+      <c r="G19" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="I19" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" s="45" t="s">
+        <v>90</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="4"/>
+      <c r="O19" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="T19" s="16"/>
       <c r="U19" s="50" t="s">
         <v>39</v>
@@ -3434,31 +4090,63 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
+      <c r="B20" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="44">
+        <v>864811036988025</v>
+      </c>
       <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="G20" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20" s="45" t="s">
+        <v>115</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="4"/>
+      <c r="O20" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R20" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="T20" s="16"/>
       <c r="U20" s="11" t="s">
         <v>17</v>
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -3466,23 +4154,51 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
+      <c r="B21" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="44">
+        <v>866050031762436</v>
+      </c>
       <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
+      <c r="G21" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="I21" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="11"/>
+      <c r="O21" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="16"/>
       <c r="U21" s="11" t="s">
@@ -3490,7 +4206,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -3498,14 +4214,14 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="10"/>
       <c r="D22" s="43"/>
       <c r="E22" s="44"/>
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="65"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="1"/>
@@ -3522,7 +4238,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -3530,14 +4246,14 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="10"/>
       <c r="D23" s="43"/>
       <c r="E23" s="44"/>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="65"/>
       <c r="J23" s="1"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -3557,14 +4273,14 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="10"/>
       <c r="D24" s="43"/>
       <c r="E24" s="44"/>
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="65"/>
       <c r="J24" s="1"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -3584,14 +4300,14 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="10"/>
       <c r="D25" s="43"/>
       <c r="E25" s="44"/>
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="65"/>
       <c r="J25" s="1"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -3615,14 +4331,14 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="10"/>
       <c r="D26" s="43"/>
       <c r="E26" s="44"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="65"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -3639,7 +4355,7 @@
       </c>
       <c r="V26" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W26" s="16"/>
     </row>
@@ -3654,7 +4370,7 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="65"/>
       <c r="J27" s="1"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -3671,7 +4387,7 @@
       </c>
       <c r="V27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="16"/>
     </row>
@@ -3686,7 +4402,7 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="65"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="11"/>
@@ -3718,7 +4434,7 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="65"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="11"/>
@@ -3750,7 +4466,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="65"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3782,7 +4498,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="65"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3799,7 +4515,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W31" s="16"/>
     </row>
@@ -3814,7 +4530,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="65"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3846,7 +4562,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="65"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3878,7 +4594,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="65"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3895,7 +4611,7 @@
       </c>
       <c r="V34" s="11">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="16"/>
     </row>
@@ -3910,7 +4626,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="65"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -3927,7 +4643,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -3942,7 +4658,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="65"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -3974,7 +4690,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="65"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -3991,7 +4707,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -4006,7 +4722,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="65"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -4033,7 +4749,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="65"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -4060,7 +4776,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="65"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -4092,7 +4808,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="65"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -4124,7 +4840,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="65"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -4151,7 +4867,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="65"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -4178,7 +4894,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="65"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -4214,7 +4930,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="65"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -4253,7 +4969,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="65"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -4292,7 +5008,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="65"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -4331,7 +5047,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="65"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -4344,7 +5060,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="40">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="11" t="s">
         <v>58</v>
@@ -4373,7 +5089,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="65"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -4401,7 +5117,7 @@
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
       <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
+      <c r="I50" s="66"/>
       <c r="J50" s="37"/>
       <c r="K50" s="37"/>
       <c r="L50" s="37"/>
@@ -4429,7 +5145,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="65"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -4457,7 +5173,7 @@
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
+      <c r="I52" s="67"/>
       <c r="J52" s="38"/>
       <c r="K52" s="38"/>
       <c r="L52" s="39"/>
@@ -4485,7 +5201,7 @@
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
       <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
+      <c r="I53" s="67"/>
       <c r="J53" s="38"/>
       <c r="K53" s="38"/>
       <c r="L53" s="39"/>
@@ -4513,7 +5229,7 @@
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
+      <c r="I54" s="67"/>
       <c r="J54" s="38"/>
       <c r="K54" s="38"/>
       <c r="L54" s="39"/>
@@ -4541,7 +5257,7 @@
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
+      <c r="I55" s="67"/>
       <c r="J55" s="38"/>
       <c r="K55" s="38"/>
       <c r="L55" s="39"/>
@@ -4631,41 +5347,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4710,58 +5426,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -4786,23 +5502,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4823,24 +5539,24 @@
       </c>
       <c r="F6" s="58"/>
       <c r="G6" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="60"/>
       <c r="J6" s="45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="45"/>
       <c r="M6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N6" s="47"/>
       <c r="O6" s="45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P6" s="45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>18</v>
@@ -4850,7 +5566,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4881,7 +5597,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4910,7 +5626,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4939,7 +5655,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4968,7 +5684,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4997,7 +5713,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5026,7 +5742,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5057,7 +5773,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5086,7 +5802,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5115,7 +5831,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5144,7 +5860,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6436,41 +7152,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6515,58 +7231,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -6591,23 +7307,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6633,7 +7349,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6664,7 +7380,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6693,7 +7409,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6722,7 +7438,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6751,7 +7467,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6780,7 +7496,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6809,7 +7525,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6840,7 +7556,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6869,7 +7585,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6898,7 +7614,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6927,7 +7643,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_LapDat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="128">
   <si>
     <t>STT</t>
   </si>
@@ -388,6 +388,39 @@
   </si>
   <si>
     <t>W.2.00.---20.200622</t>
+  </si>
+  <si>
+    <t>Thiết bị dự phòng</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>29/03/2021</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Test lại làm mới thiết bị</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Thiết bị dự phòng, sim lỗi</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200527</t>
   </si>
 </sst>
 </file>
@@ -799,15 +832,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -836,6 +860,15 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1177,43 +1210,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="62"/>
@@ -1258,58 +1291,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1334,23 +1367,23 @@
       <c r="I5" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1402,7 +1435,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1459,7 +1492,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1514,7 +1547,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1567,7 +1600,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1620,7 +1653,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1673,7 +1706,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1702,7 +1735,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1733,7 +1766,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1762,7 +1795,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1791,7 +1824,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1820,7 +1853,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3051,6 +3084,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -3064,11 +3102,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3079,8 +3112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3112,41 +3145,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="62"/>
@@ -3191,58 +3224,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -3267,23 +3300,23 @@
       <c r="I5" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3335,7 +3368,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3394,7 +3427,7 @@
         <v>111</v>
       </c>
       <c r="T7" s="49"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3449,7 +3482,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3506,7 +3539,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3563,7 +3596,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3620,7 +3653,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3677,7 +3710,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3736,7 +3769,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3795,7 +3828,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3852,7 +3885,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3909,7 +3942,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4146,7 +4179,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -4214,31 +4247,61 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
+      <c r="B22" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="44">
+        <v>868926033928943</v>
+      </c>
       <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="65"/>
+      <c r="G22" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" s="65" t="s">
+        <v>120</v>
+      </c>
       <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="11"/>
+      <c r="K22" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="N22" s="11"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="4"/>
+      <c r="O22" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="T22" s="16"/>
       <c r="U22" s="11" t="s">
         <v>50</v>
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -4246,24 +4309,54 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
+      <c r="B23" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="44">
+        <v>868926033994390</v>
+      </c>
       <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="65"/>
+      <c r="G23" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="65" t="s">
+        <v>123</v>
+      </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="K23" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="N23" s="11"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="4"/>
+      <c r="O23" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
       <c r="V23" s="18"/>
@@ -4273,23 +4366,49 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
+      <c r="B24" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="44">
+        <v>868926033941912</v>
+      </c>
       <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="65"/>
+      <c r="G24" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" s="65" t="s">
+        <v>120</v>
+      </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="11"/>
+      <c r="K24" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="M24" s="11" t="s">
+        <v>121</v>
+      </c>
       <c r="N24" s="11"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="11"/>
+      <c r="O24" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
@@ -4300,23 +4419,49 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
+      <c r="B25" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="44">
+        <v>869696043503379</v>
+      </c>
       <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="65"/>
+      <c r="G25" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" s="65" t="s">
+        <v>120</v>
+      </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="11"/>
+      <c r="K25" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="M25" s="11" t="s">
+        <v>121</v>
+      </c>
       <c r="N25" s="11"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="11"/>
+      <c r="O25" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="S25" s="4"/>
       <c r="T25" s="16"/>
       <c r="U25" s="50" t="s">
@@ -4331,24 +4476,56 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="65"/>
+      <c r="B26" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="44">
+        <v>868926033916468</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" s="65" t="s">
+        <v>123</v>
+      </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
+      <c r="K26" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="N26" s="11"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="4"/>
+      <c r="O26" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="T26" s="16"/>
       <c r="U26" s="4" t="s">
         <v>26</v>
@@ -4363,24 +4540,54 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
+      <c r="B27" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="44">
+        <v>868926033929552</v>
+      </c>
       <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="65"/>
+      <c r="G27" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="65" t="s">
+        <v>120</v>
+      </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="K27" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="N27" s="11"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="4"/>
+      <c r="O27" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="T27" s="16"/>
       <c r="U27" s="4" t="s">
         <v>34</v>
@@ -4643,7 +4850,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -4675,7 +4882,7 @@
       </c>
       <c r="V36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="16"/>
     </row>
@@ -4707,7 +4914,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -5286,13 +5493,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5304,6 +5504,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5347,41 +5554,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -5426,58 +5633,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -5502,23 +5709,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5566,7 +5773,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5597,7 +5804,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5626,7 +5833,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5655,7 +5862,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5684,7 +5891,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5713,7 +5920,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5742,7 +5949,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5773,7 +5980,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5802,7 +6009,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5831,7 +6038,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5860,7 +6067,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7091,6 +7298,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7102,13 +7316,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7152,41 +7359,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -7231,58 +7438,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="A4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -7307,23 +7514,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7349,7 +7556,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="82" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7380,7 +7587,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7409,7 +7616,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7438,7 +7645,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7467,7 +7674,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7496,7 +7703,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7525,7 +7732,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7556,7 +7763,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7585,7 +7792,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7614,7 +7821,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7643,7 +7850,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8874,13 +9081,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8892,6 +9092,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="2175" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="2175" windowHeight="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="128">
   <si>
     <t>STT</t>
   </si>
@@ -832,6 +832,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -860,15 +869,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1177,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1210,43 +1210,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="79"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="62"/>
@@ -1291,58 +1291,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1367,23 +1367,23 @@
       <c r="I5" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1735,7 +1735,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1766,7 +1766,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1824,7 +1824,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1853,7 +1853,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3084,11 +3084,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -3102,6 +3097,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3112,8 +3112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3145,41 +3145,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="62"/>
@@ -3224,58 +3224,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -3300,23 +3300,23 @@
       <c r="I5" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3427,7 +3427,7 @@
         <v>111</v>
       </c>
       <c r="T7" s="49"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5493,6 +5493,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5504,13 +5511,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5521,8 +5521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61:E62"/>
+    <sheetView showZeros="0" topLeftCell="E3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5554,41 +5554,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -5633,58 +5633,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -5709,23 +5709,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5773,7 +5773,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5804,7 +5804,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5833,7 +5833,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5862,7 +5862,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5891,7 +5891,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5920,7 +5920,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5949,7 +5949,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5980,7 +5980,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6009,7 +6009,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6038,7 +6038,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6067,7 +6067,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7298,13 +7298,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7316,6 +7309,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7326,8 +7326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7359,41 +7359,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -7438,58 +7438,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="75" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -7514,49 +7514,75 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="42">
+        <v>44263</v>
+      </c>
+      <c r="C6" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="44">
+        <v>868183034607908</v>
+      </c>
       <c r="F6" s="58"/>
-      <c r="G6" s="43"/>
+      <c r="G6" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="48"/>
+      <c r="I6" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="M6" s="45" t="s">
+        <v>108</v>
+      </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="O6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>109</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="82" t="s">
+      <c r="U6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7568,26 +7594,52 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
+      <c r="B7" s="42">
+        <v>44263</v>
+      </c>
+      <c r="C7" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="44">
+        <v>868183034810569</v>
+      </c>
       <c r="F7" s="58"/>
-      <c r="G7" s="43"/>
+      <c r="G7" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="I7" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>99</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="O7" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="83"/>
+      <c r="U7" s="73"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7597,26 +7649,52 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="60"/>
+      <c r="B8" s="42">
+        <v>44263</v>
+      </c>
+      <c r="C8" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="44">
+        <v>867717030422548</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="60" t="s">
+        <v>71</v>
+      </c>
       <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="K8" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>65</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
+      <c r="O8" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="83"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7626,26 +7704,50 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
+      <c r="B9" s="42">
+        <v>44263</v>
+      </c>
+      <c r="C9" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="44">
+        <v>868183034730601</v>
+      </c>
       <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
+      <c r="G9" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="60"/>
+      <c r="I9" s="60" t="s">
+        <v>68</v>
+      </c>
       <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
+      <c r="K9" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
+      <c r="M9" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="47"/>
+      <c r="O9" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="83"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7655,26 +7757,50 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="42">
+        <v>44263</v>
+      </c>
+      <c r="C10" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="44">
+        <v>867717030435003</v>
+      </c>
       <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
+      <c r="G10" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="J10" s="45"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="43"/>
+      <c r="M10" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="47"/>
+      <c r="O10" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="83"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7684,26 +7810,50 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
+      <c r="B11" s="10">
+        <v>44263</v>
+      </c>
+      <c r="C11" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="12">
+        <v>868183034757224</v>
+      </c>
+      <c r="F11" s="70"/>
+      <c r="G11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="70"/>
+      <c r="I11" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="71" t="s">
+        <v>105</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="43"/>
+      <c r="O11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="83"/>
+      <c r="U11" s="73"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7713,26 +7863,52 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C12" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="44">
+        <v>866050031761347</v>
+      </c>
       <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="1"/>
+      <c r="G12" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>78</v>
+      </c>
       <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="43"/>
+      <c r="M12" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="47"/>
+      <c r="O12" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="82" t="s">
+      <c r="U12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7744,26 +7920,54 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
+      <c r="B13" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C13" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="44">
+        <v>864811031271690</v>
+      </c>
       <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="1"/>
+      <c r="G13" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="43"/>
+      <c r="I13" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>79</v>
+      </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="4"/>
+      <c r="L13" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="T13" s="49"/>
-      <c r="U13" s="83"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7773,26 +7977,52 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
+      <c r="B14" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C14" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="44">
+        <v>868926033921286</v>
+      </c>
       <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="1"/>
+      <c r="G14" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="46" t="s">
+        <v>80</v>
+      </c>
       <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="M14" s="45" t="s">
+        <v>82</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="43"/>
+      <c r="O14" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="43" t="s">
+        <v>36</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="83"/>
+      <c r="U14" s="73"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7802,26 +8032,54 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
+      <c r="B15" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C15" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="44">
+        <v>868926033929206</v>
+      </c>
       <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
+      <c r="G15" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="43"/>
+      <c r="O15" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R15" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="83"/>
+      <c r="U15" s="73"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7831,26 +8089,54 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
+      <c r="B16" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C16" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="44">
+        <v>864811036991805</v>
+      </c>
       <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
+      <c r="G16" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="43"/>
+      <c r="O16" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R16" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="84"/>
+      <c r="U16" s="74"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7860,23 +8146,51 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
+      <c r="B17" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C17" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="44">
+        <v>868926033918597</v>
+      </c>
       <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="45"/>
+      <c r="G17" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="43"/>
+      <c r="O17" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R17" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="16"/>
       <c r="U17" s="49"/>
@@ -7887,23 +8201,51 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
+      <c r="B18" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C18" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="44">
+        <v>866192037814454</v>
+      </c>
       <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="G18" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="11"/>
+      <c r="I18" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
+      <c r="O18" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R18" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
@@ -7914,23 +8256,51 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
+      <c r="B19" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C19" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="44">
+        <v>868345035588318</v>
+      </c>
       <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="G19" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="11"/>
+      <c r="O19" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R19" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="S19" s="4"/>
       <c r="T19" s="16"/>
       <c r="U19" s="50" t="s">
@@ -7945,23 +8315,53 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
+      <c r="B20" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C20" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="44">
+        <v>864811037173700</v>
+      </c>
       <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="G20" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="45" t="s">
+        <v>101</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="11"/>
+      <c r="O20" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R20" s="43" t="s">
+        <v>102</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="16"/>
       <c r="U20" s="11" t="s">
@@ -7969,7 +8369,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -7977,23 +8377,51 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
+      <c r="B21" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C21" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="44">
+        <v>866192037828694</v>
+      </c>
       <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
+      <c r="G21" s="43" t="s">
+        <v>76</v>
+      </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="I21" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="11"/>
+      <c r="O21" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="16"/>
       <c r="U21" s="11" t="s">
@@ -8001,7 +8429,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -8009,23 +8437,51 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
+      <c r="B22" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C22" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="44">
+        <v>868926033973055</v>
+      </c>
       <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="11"/>
+      <c r="G22" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="M22" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="16"/>
       <c r="U22" s="11" t="s">
@@ -8033,7 +8489,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -8041,23 +8497,51 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
+      <c r="B23" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C23" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="44">
+        <v>864811037115263</v>
+      </c>
       <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="11"/>
+      <c r="G23" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L23" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="M23" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="S23" s="4"/>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
@@ -8068,23 +8552,51 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
+      <c r="B24" s="42">
+        <v>44267</v>
+      </c>
+      <c r="C24" s="42">
+        <v>44271</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="44">
+        <v>866192037838313</v>
+      </c>
       <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="11"/>
+      <c r="G24" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L24" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R24" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
@@ -8095,24 +8607,54 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
+      <c r="B25" s="42">
+        <v>44271</v>
+      </c>
+      <c r="C25" s="42">
+        <v>44272</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="44">
+        <v>868926033935500</v>
+      </c>
       <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="4"/>
+      <c r="G25" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L25" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="M25" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="T25" s="16"/>
       <c r="U25" s="50" t="s">
         <v>46</v>
@@ -8126,31 +8668,63 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
+      <c r="B26" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="44">
+        <v>864811036988025</v>
+      </c>
       <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="4"/>
+      <c r="G26" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R26" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="T26" s="16"/>
       <c r="U26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="V26" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W26" s="16"/>
     </row>
@@ -8158,23 +8732,51 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
+      <c r="B27" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="44">
+        <v>866050031762436</v>
+      </c>
       <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="11"/>
+      <c r="G27" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="M27" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R27" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="S27" s="4"/>
       <c r="T27" s="16"/>
       <c r="U27" s="4" t="s">
@@ -8182,7 +8784,7 @@
       </c>
       <c r="V27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="16"/>
     </row>
@@ -8190,24 +8792,54 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
+      <c r="B28" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="44">
+        <v>868926033928943</v>
+      </c>
       <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="4"/>
+      <c r="G28" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="N28" s="11"/>
+      <c r="O28" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="T28" s="16"/>
       <c r="U28" s="4" t="s">
         <v>27</v>
@@ -8222,31 +8854,61 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
+      <c r="B29" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="44">
+        <v>868926033994390</v>
+      </c>
       <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="G29" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="65" t="s">
+        <v>123</v>
+      </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="4"/>
+      <c r="K29" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="N29" s="11"/>
+      <c r="O29" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="T29" s="16"/>
       <c r="U29" s="4" t="s">
         <v>52</v>
       </c>
       <c r="V29" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="16"/>
     </row>
@@ -8254,23 +8916,49 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="B30" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="44">
+        <v>868926033941912</v>
+      </c>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="65" t="s">
+        <v>120</v>
+      </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="11"/>
+      <c r="K30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N30" s="11"/>
+      <c r="O30" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="S30" s="4"/>
       <c r="T30" s="16"/>
       <c r="U30" s="4" t="s">
@@ -8286,23 +8974,49 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="B31" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="44">
+        <v>869696043503379</v>
+      </c>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="65" t="s">
+        <v>120</v>
+      </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="11"/>
+      <c r="K31" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N31" s="11"/>
+      <c r="O31" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="S31" s="4"/>
       <c r="T31" s="16"/>
       <c r="U31" s="4" t="s">
@@ -8310,7 +9024,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="W31" s="16"/>
     </row>
@@ -8318,24 +9032,56 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="B32" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="44">
+        <v>868926033916468</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" s="65" t="s">
+        <v>123</v>
+      </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="4"/>
+      <c r="K32" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="N32" s="11"/>
+      <c r="O32" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="T32" s="16"/>
       <c r="U32" s="4" t="s">
         <v>28</v>
@@ -8350,24 +9096,54 @@
       <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="B33" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="44">
+        <v>868926033929552</v>
+      </c>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="65" t="s">
+        <v>120</v>
+      </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="4"/>
+      <c r="K33" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="N33" s="11"/>
+      <c r="O33" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="T33" s="16"/>
       <c r="U33" s="4" t="s">
         <v>47</v>
@@ -8382,23 +9158,45 @@
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="11"/>
+      <c r="B34" s="42">
+        <v>44257</v>
+      </c>
+      <c r="C34" s="42">
+        <v>44257</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="44">
+        <v>862549040724240</v>
+      </c>
+      <c r="F34" s="58"/>
+      <c r="G34" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="43"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34" s="48"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N34" s="47"/>
+      <c r="O34" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R34" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="S34" s="4"/>
       <c r="T34" s="16"/>
       <c r="U34" s="4" t="s">
@@ -8406,7 +9204,7 @@
       </c>
       <c r="V34" s="11">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="16"/>
     </row>
@@ -8438,7 +9236,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -8470,7 +9268,7 @@
       </c>
       <c r="V36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W36" s="16"/>
     </row>
@@ -8502,7 +9300,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -8620,7 +9418,7 @@
       </c>
       <c r="V41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="16"/>
     </row>
@@ -8855,7 +9653,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="40">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="11" t="s">
         <v>58</v>
@@ -9081,6 +9879,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9092,13 +9897,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
